--- a/data/case1/11/P1_3.xlsx
+++ b/data/case1/11/P1_3.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.47579155995947531</v>
+        <v>0.39698209129538498</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.070793718132630801</v>
+        <v>-0.0099999995871904446</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999989468072528</v>
+        <v>-0.034319509131092829</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999709093601</v>
+        <v>-0.011999999886414869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999989519985419</v>
+        <v>-0.0059999995859918442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999989112959895</v>
+        <v>-0.0059999995743673651</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998724919976</v>
+        <v>-0.019999999496041809</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998716</v>
+        <v>-0.01999999949413489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999988906538348</v>
+        <v>0.034594747688743155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999988842420748</v>
+        <v>-0.0059999995658586158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999989036398347</v>
+        <v>-0.0044999995736070275</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0030445102817848735</v>
+        <v>-0.0059999995642496806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999998877388002</v>
+        <v>-0.0059999995598918332</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998797841194</v>
+        <v>-0.01199999952550268</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999988763550505</v>
+        <v>-0.0059999995580160004</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999988777339475</v>
+        <v>0.0080604992788781971</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.023162194206548747</v>
+        <v>-0.0059999995557626917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999988423228316</v>
+        <v>-0.0089999995386929044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999989859363971</v>
+        <v>-0.0089999995914507025</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.045121875469258832</v>
+        <v>-0.066646365703947552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999989613702702</v>
+        <v>-0.008999999578152007</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999998960293798</v>
+        <v>-0.0089999995777114705</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.03756047224744119</v>
+        <v>-0.008999999575443951</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998485180434</v>
+        <v>-0.041999999386234776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998476258682</v>
+        <v>-0.041999999382934305</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999989072636595</v>
+        <v>-0.0059999995730883882</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999989009416055</v>
+        <v>-0.0059999995712214371</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.005999998874844259</v>
+        <v>-0.0059999995651001115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.01199999877873914</v>
+        <v>-0.011999999527146699</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999998665527485</v>
+        <v>-0.019999999480686981</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999998718549179</v>
+        <v>0.00036892843383640184</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998638063566</v>
+        <v>-0.02099999947188369</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999988335208698</v>
+        <v>-0.0059999995546773377</v>
       </c>
     </row>
   </sheetData>
